--- a/Area de Proceso PP-PMC/v0.3/ACREPRO/ACREPRO_19_07_2016.xlsx
+++ b/Area de Proceso PP-PMC/v0.3/ACREPRO/ACREPRO_19_07_2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDS1\DEV-SOFT\Area de Proceso PP-PMC\v0.3\ACREPRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Libros  Ordenados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23730" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción Lecciones Aprendida" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -173,6 +173,123 @@
   </si>
   <si>
     <t>PDS EIRL</t>
+  </si>
+  <si>
+    <t>Actas de reunion</t>
+  </si>
+  <si>
+    <t>El juntar a todo el equipo en reuniones presenciales es uno de los principales contratiempos</t>
+  </si>
+  <si>
+    <t>Inicio/fin del proyecto</t>
+  </si>
+  <si>
+    <t>Se considero una mejor manera hacerlo con reuniones virtuales y delegando responsabilidades</t>
+  </si>
+  <si>
+    <t>Los contratiempos fueron solventados, ya que se pudo trabajar en horarios que todos compartimos virtualmente</t>
+  </si>
+  <si>
+    <t>Se debe establecer las reuniones presenciales o virtuales desde un inicio</t>
+  </si>
+  <si>
+    <t>La asignacion de responsabilidades debe ser escrita y compartida para que no hayan confusiones en pleno desarrollo</t>
+  </si>
+  <si>
+    <t>Se designo arbitrariamente luego de conocer las capacidades de cada desarrollador</t>
+  </si>
+  <si>
+    <t>Se pudo cumplir con la documentación con algo de retraso</t>
+  </si>
+  <si>
+    <t>El jefe de proyecto debe designar desde un inicio y  arbitrariamente conociendo las capacidades responsabilidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ingenieria / DANA</t>
+  </si>
+  <si>
+    <t>No teniamos una documentación clara como ejemplo, el cual nos hizo perder tiempo</t>
+  </si>
+  <si>
+    <t>Hablar y solventar problemas con el Master(guía) en este caso el profesor</t>
+  </si>
+  <si>
+    <t>Se pudo elaborar el documento, aunque se genero retraso</t>
+  </si>
+  <si>
+    <t>Cuando no se tiene una documentación clara, es bueno hablar con el Master en CMMI</t>
+  </si>
+  <si>
+    <t>Ingenieria / DDIS</t>
+  </si>
+  <si>
+    <t>Al no tener el DANA no pudimos terminar el DDIS</t>
+  </si>
+  <si>
+    <t>Repositorio</t>
+  </si>
+  <si>
+    <t>El equipo no conocía en su mayoria la forma de usar el repositorio</t>
+  </si>
+  <si>
+    <t>Ejecucion, desarrollo de documentacion</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Se brindo un taller de github y se designo responsables de el</t>
+  </si>
+  <si>
+    <t>Los documentos fueron subidos en sus fechas correspondientes</t>
+  </si>
+  <si>
+    <t>Brindar una capacitación desde un inicio al momento de definir el repositorio</t>
+  </si>
+  <si>
+    <t>Puntualidad</t>
+  </si>
+  <si>
+    <t>Miembros del equipo no asistian no solo a las reuniones sino a las clases</t>
+  </si>
+  <si>
+    <t>En todo el proyecto</t>
+  </si>
+  <si>
+    <t>Todas las areas</t>
+  </si>
+  <si>
+    <t>Se dio responsabilidades por áreas</t>
+  </si>
+  <si>
+    <t>Se entragon los documentos con retraso</t>
+  </si>
+  <si>
+    <t>Dar responsabilidades en las áreas, comunicar al Master en CMMI</t>
+  </si>
+  <si>
+    <t>Revisiones</t>
+  </si>
+  <si>
+    <t>El equipo tuvo retrasos al momento de dar revisiones a los documentos porque no se habia definido a alguien externo para que revise el codigo</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Se definio al Qa gracias a la ayuda del Master en CMMI(profesor)</t>
+  </si>
+  <si>
+    <t>Se pudo hacer las revisiones aunque con retrasos</t>
+  </si>
+  <si>
+    <t>Cuando se genera confusión se deber recurrir al Guia de CMMI</t>
   </si>
 </sst>
 </file>
@@ -265,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -575,6 +692,32 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -582,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -641,6 +784,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -728,14 +880,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -746,6 +898,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -755,20 +913,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:I12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,154 +1364,154 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:9" ht="27" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="44"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="20">
+      <c r="C10" s="39"/>
+      <c r="D10" s="23">
         <v>42492</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="23">
         <v>42571</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="44"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="44"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="44"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -1390,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>1</v>
       </c>
@@ -1442,7 +1591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="153" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>1</v>
       </c>
@@ -1468,7 +1617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -1494,86 +1643,194 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>1</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>1</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
       <c r="B23" s="14">
         <v>1</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>1</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>1</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>1</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C26" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B2:E6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="D9:I9"/>
@@ -1586,6 +1843,11 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B2:E6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1615,168 +1877,168 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="62">
+      <c r="C10" s="49"/>
+      <c r="D10" s="58">
         <v>42492</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="58"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="58">
         <v>42571</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="57"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="52" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="55" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="55" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
@@ -1907,16 +2169,6 @@
     <row r="28" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:E6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -1926,6 +2178,16 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B2:E6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
